--- a/medicine/Pharmacie/1918_en_santé_et_médecine/1918_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1918_en_santé_et_médecine/1918_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1918_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1918_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1918 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1918_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1918_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pandémie de grippe dite « espagnole » :
 septembre : aux États-Unis, dans la région de Boston, le virus de la grippe devient mortel ;
@@ -521,7 +535,7 @@
 novembre : il gagne l'Afrique, l'Amérique du Sud, les Indes, la Russie, la Chine, l'Océanie ;
 décembre : pic de mortalité ;
 janvier 1919 : derniers pays touchés.
-1er novembre : ouverture de l'École de médecine de Dakar[1].</t>
+1er novembre : ouverture de l'École de médecine de Dakar.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1918_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1918_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Janvier
 23 janvier : Gertrude Elion (morte en 1999), pharmacologue et biochimiste américaine, lauréate du prix Nobel de médecine en 1988 avec James Black et George Hitchings  « pour leurs découvertes de principes importants dans le traitement médicamenteux ».
@@ -619,7 +635,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1918_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1918_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -637,7 +653,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janvier
 26 janvier : Ludwig Edinger (né en 1855), anatomiste et neurologue allemand.
